--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T16:26:51+05:45</t>
+    <t>2025-08-07T10:18:47+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T10:18:47+05:45</t>
+    <t>2025-08-08T09:35:18+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Integrated Health Information Management Section (https://hmis.gov.np, it@hmis.gov.np)</t>
   </si>
   <si>
-    <t>RC Poudel (rcpoudel@amakomaya.com(Work))</t>
+    <t>RC Poudel (rcpoudel@amakomaya.com, rmchndrapdl@gmail.com, ph: +977-9851341921)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>0.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:35:18+05:45</t>
+    <t>2025-08-10T13:33:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/ValueSet/province</t>
+    <t>https://fhir.hmis.gov.np/ValueSet/province</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,7 +153,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/CodeSystem/locations</t>
+    <t>https://fhir.hmis.gov.np/CodeSystem/locations</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-province.xlsx
+++ b/output/ValueSet-province.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
